--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,25 +528,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H2">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.348720333333333</v>
+        <v>0.2347256666666667</v>
       </c>
       <c r="N2">
-        <v>4.046161</v>
+        <v>0.7041770000000001</v>
       </c>
       <c r="O2">
-        <v>0.09650479089298154</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="P2">
-        <v>0.09650479089298154</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="Q2">
-        <v>0.7085857434187778</v>
+        <v>0.3152150538138889</v>
       </c>
       <c r="R2">
-        <v>6.377271690769</v>
+        <v>2.836935484325</v>
       </c>
       <c r="S2">
-        <v>0.008024707618437248</v>
+        <v>0.008533141202990677</v>
       </c>
       <c r="T2">
-        <v>0.008024707618437248</v>
+        <v>0.008533141202990677</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H3">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.2347256666666667</v>
+        <v>0.035534</v>
       </c>
       <c r="N3">
-        <v>0.7041770000000001</v>
+        <v>0.106602</v>
       </c>
       <c r="O3">
-        <v>0.01679529166947313</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="P3">
-        <v>0.01679529166947313</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="Q3">
-        <v>0.1233193100925556</v>
+        <v>0.04771890471666666</v>
       </c>
       <c r="R3">
-        <v>1.109873790833</v>
+        <v>0.42947014245</v>
       </c>
       <c r="S3">
-        <v>0.001396586674783403</v>
+        <v>0.001291791578709915</v>
       </c>
       <c r="T3">
-        <v>0.001396586674783403</v>
+        <v>0.001291791578709915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H4">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.035534</v>
+        <v>7.649223333333333</v>
       </c>
       <c r="N4">
-        <v>0.106602</v>
+        <v>22.94767</v>
       </c>
       <c r="O4">
-        <v>0.002542559161331845</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="P4">
-        <v>0.002542559161331845</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="Q4">
-        <v>0.01866872262866667</v>
+        <v>10.27220575786111</v>
       </c>
       <c r="R4">
-        <v>0.168018503658</v>
+        <v>92.44985182074998</v>
       </c>
       <c r="S4">
-        <v>0.0002114226007172349</v>
+        <v>0.2780773987074742</v>
       </c>
       <c r="T4">
-        <v>0.0002114226007172348</v>
+        <v>0.2780773987074742</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5253763333333333</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H5">
-        <v>1.576129</v>
+        <v>1.488965</v>
       </c>
       <c r="I5">
-        <v>0.08315346361753381</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J5">
-        <v>0.08315346361753381</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>12.35670266666667</v>
+        <v>0.2347256666666667</v>
       </c>
       <c r="N5">
-        <v>37.070108</v>
+        <v>0.7041770000000001</v>
       </c>
       <c r="O5">
-        <v>0.8841573582762134</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="P5">
-        <v>0.8841573582762134</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="Q5">
-        <v>6.491919139103555</v>
+        <v>0.1164994340894444</v>
       </c>
       <c r="R5">
-        <v>58.427272251932</v>
+        <v>1.048494906805</v>
       </c>
       <c r="S5">
-        <v>0.07352074672359592</v>
+        <v>0.003153739357069796</v>
       </c>
       <c r="T5">
-        <v>0.07352074672359592</v>
+        <v>0.003153739357069796</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H6">
         <v>1.488965</v>
       </c>
       <c r="I6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.348720333333333</v>
+        <v>0.035534</v>
       </c>
       <c r="N6">
-        <v>4.046161</v>
+        <v>0.106602</v>
       </c>
       <c r="O6">
-        <v>0.09650479089298154</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="P6">
-        <v>0.09650479089298154</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="Q6">
-        <v>0.6693991237072223</v>
+        <v>0.01763629410333333</v>
       </c>
       <c r="R6">
-        <v>6.024592113365</v>
+        <v>0.15872664693</v>
       </c>
       <c r="S6">
-        <v>0.007580920583966426</v>
+        <v>0.0004774295708924807</v>
       </c>
       <c r="T6">
-        <v>0.007580920583966426</v>
+        <v>0.0004774295708924807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,51 +847,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H7">
         <v>1.488965</v>
       </c>
       <c r="I7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2347256666666667</v>
+        <v>7.649223333333333</v>
       </c>
       <c r="N7">
-        <v>0.7041770000000001</v>
+        <v>22.94767</v>
       </c>
       <c r="O7">
-        <v>0.01679529166947313</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="P7">
-        <v>0.01679529166947313</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="Q7">
-        <v>0.1164994340894445</v>
+        <v>3.796475273505555</v>
       </c>
       <c r="R7">
-        <v>1.048494906805</v>
+        <v>34.16827746155</v>
       </c>
       <c r="S7">
-        <v>0.001319351828574228</v>
+        <v>0.1027738338969461</v>
       </c>
       <c r="T7">
-        <v>0.001319351828574228</v>
+        <v>0.1027738338969461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4963216666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H8">
-        <v>1.488965</v>
+        <v>0.450592</v>
       </c>
       <c r="I8">
-        <v>0.07855486254950023</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J8">
-        <v>0.07855486254950023</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.035534</v>
+        <v>0.2347256666666667</v>
       </c>
       <c r="N8">
-        <v>0.106602</v>
+        <v>0.7041770000000001</v>
       </c>
       <c r="O8">
-        <v>0.002542559161331845</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="P8">
-        <v>0.002542559161331845</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="Q8">
-        <v>0.01763629410333334</v>
+        <v>0.03525516919822223</v>
       </c>
       <c r="R8">
-        <v>0.15872664693</v>
+        <v>0.317296522784</v>
       </c>
       <c r="S8">
-        <v>0.0001997303854423957</v>
+        <v>0.0009543875943227635</v>
       </c>
       <c r="T8">
-        <v>0.0001997303854423957</v>
+        <v>0.0009543875943227635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4963216666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H9">
-        <v>1.488965</v>
+        <v>0.450592</v>
       </c>
       <c r="I9">
-        <v>0.07855486254950023</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J9">
-        <v>0.07855486254950023</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>12.35670266666667</v>
+        <v>0.035534</v>
       </c>
       <c r="N9">
-        <v>37.070108</v>
+        <v>0.106602</v>
       </c>
       <c r="O9">
-        <v>0.8841573582762134</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="P9">
-        <v>0.8841573582762134</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="Q9">
-        <v>6.132899262024444</v>
+        <v>0.005337112042666667</v>
       </c>
       <c r="R9">
-        <v>55.19609335822</v>
+        <v>0.048034008384</v>
       </c>
       <c r="S9">
-        <v>0.06945485975151718</v>
+        <v>0.0001444801893983973</v>
       </c>
       <c r="T9">
-        <v>0.06945485975151718</v>
+        <v>0.0001444801893983973</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H10">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.348720333333333</v>
+        <v>7.649223333333333</v>
       </c>
       <c r="N10">
-        <v>4.046161</v>
+        <v>22.94767</v>
       </c>
       <c r="O10">
-        <v>0.09650479089298154</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="P10">
-        <v>0.09650479089298154</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="Q10">
-        <v>0.3029450655388889</v>
+        <v>1.148892946737778</v>
       </c>
       <c r="R10">
-        <v>2.726505589849999</v>
+        <v>10.34003652064</v>
       </c>
       <c r="S10">
-        <v>0.003430841783054521</v>
+        <v>0.03110151505461361</v>
       </c>
       <c r="T10">
-        <v>0.003430841783054521</v>
+        <v>0.03110151505461361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2246166666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H11">
-        <v>0.6738499999999999</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I11">
-        <v>0.03555099960642508</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J11">
-        <v>0.03555099960642508</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,27 +1119,27 @@
         <v>0.7041770000000001</v>
       </c>
       <c r="O11">
-        <v>0.01679529166947313</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="P11">
-        <v>0.01679529166947313</v>
+        <v>0.02963901389354162</v>
       </c>
       <c r="Q11">
-        <v>0.05272329682777778</v>
+        <v>0.6278983565871112</v>
       </c>
       <c r="R11">
-        <v>0.47450967145</v>
+        <v>5.651085209284001</v>
       </c>
       <c r="S11">
-        <v>0.0005970894075312337</v>
+        <v>0.01699774573915839</v>
       </c>
       <c r="T11">
-        <v>0.0005970894075312337</v>
+        <v>0.01699774573915839</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2246166666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H12">
-        <v>0.6738499999999999</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I12">
-        <v>0.03555099960642508</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J12">
-        <v>0.03555099960642508</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,27 +1181,27 @@
         <v>0.106602</v>
       </c>
       <c r="O12">
-        <v>0.002542559161331845</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="P12">
-        <v>0.002542559161331845</v>
+        <v>0.004486909057068498</v>
       </c>
       <c r="Q12">
-        <v>0.007981528633333334</v>
+        <v>0.09505453970933335</v>
       </c>
       <c r="R12">
-        <v>0.0718337577</v>
+        <v>0.8554908573840001</v>
       </c>
       <c r="S12">
-        <v>9.039051974382091E-05</v>
+        <v>0.002573207718067705</v>
       </c>
       <c r="T12">
-        <v>9.039051974382089E-05</v>
+        <v>0.002573207718067705</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2246166666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H13">
-        <v>0.6738499999999999</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I13">
-        <v>0.03555099960642508</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J13">
-        <v>0.03555099960642508</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.35670266666667</v>
+        <v>7.649223333333333</v>
       </c>
       <c r="N13">
-        <v>37.070108</v>
+        <v>22.94767</v>
       </c>
       <c r="O13">
-        <v>0.8841573582762134</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="P13">
-        <v>0.8841573582762134</v>
+        <v>0.9658740770493899</v>
       </c>
       <c r="Q13">
-        <v>2.775521363977777</v>
+        <v>20.46190699284889</v>
       </c>
       <c r="R13">
-        <v>24.9796922758</v>
+        <v>184.15716293564</v>
       </c>
       <c r="S13">
-        <v>0.0314326778960955</v>
+        <v>0.553921329390356</v>
       </c>
       <c r="T13">
-        <v>0.0314326778960955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>5.071838666666667</v>
-      </c>
-      <c r="H14">
-        <v>15.215516</v>
-      </c>
-      <c r="I14">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="J14">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>1.348720333333333</v>
-      </c>
-      <c r="N14">
-        <v>4.046161</v>
-      </c>
-      <c r="O14">
-        <v>0.09650479089298154</v>
-      </c>
-      <c r="P14">
-        <v>0.09650479089298154</v>
-      </c>
-      <c r="Q14">
-        <v>6.840491937119556</v>
-      </c>
-      <c r="R14">
-        <v>61.564427434076</v>
-      </c>
-      <c r="S14">
-        <v>0.07746832090752336</v>
-      </c>
-      <c r="T14">
-        <v>0.07746832090752336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>5.071838666666667</v>
-      </c>
-      <c r="H15">
-        <v>15.215516</v>
-      </c>
-      <c r="I15">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="J15">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.2347256666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.7041770000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.01679529166947313</v>
-      </c>
-      <c r="P15">
-        <v>0.01679529166947313</v>
-      </c>
-      <c r="Q15">
-        <v>1.190490712259111</v>
-      </c>
-      <c r="R15">
-        <v>10.714416410332</v>
-      </c>
-      <c r="S15">
-        <v>0.01348226375858427</v>
-      </c>
-      <c r="T15">
-        <v>0.01348226375858427</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>5.071838666666667</v>
-      </c>
-      <c r="H16">
-        <v>15.215516</v>
-      </c>
-      <c r="I16">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="J16">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.035534</v>
-      </c>
-      <c r="N16">
-        <v>0.106602</v>
-      </c>
-      <c r="O16">
-        <v>0.002542559161331845</v>
-      </c>
-      <c r="P16">
-        <v>0.002542559161331845</v>
-      </c>
-      <c r="Q16">
-        <v>0.1802227151813334</v>
-      </c>
-      <c r="R16">
-        <v>1.622004436632</v>
-      </c>
-      <c r="S16">
-        <v>0.002041015655428394</v>
-      </c>
-      <c r="T16">
-        <v>0.002041015655428394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.071838666666667</v>
-      </c>
-      <c r="H17">
-        <v>15.215516</v>
-      </c>
-      <c r="I17">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="J17">
-        <v>0.8027406742265409</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>12.35670266666667</v>
-      </c>
-      <c r="N17">
-        <v>37.070108</v>
-      </c>
-      <c r="O17">
-        <v>0.8841573582762134</v>
-      </c>
-      <c r="P17">
-        <v>0.8841573582762134</v>
-      </c>
-      <c r="Q17">
-        <v>62.67120237730311</v>
-      </c>
-      <c r="R17">
-        <v>564.040821395728</v>
-      </c>
-      <c r="S17">
-        <v>0.7097490739050049</v>
-      </c>
-      <c r="T17">
-        <v>0.7097490739050049</v>
+        <v>0.553921329390356</v>
       </c>
     </row>
   </sheetData>
